--- a/biology/Botanique/Asarum_caulescens/Asarum_caulescens.xlsx
+++ b/biology/Botanique/Asarum_caulescens/Asarum_caulescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarum caulescens (futaba aoi ou aoi en japonais), est une espèce de plante herbacée de la famille des Aristolochiaceae. Ses feuilles en forme de cœur sont un motif de décoration au Japon.
 Aoi est quelquefois traduit en anglais par hollyhock (rose tremière) : il s'agit du tachi aoi et non du futaba aoi.
